--- a/data_config/BattleItem.xlsx
+++ b/data_config/BattleItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="19335" windowHeight="10845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1458,7 +1458,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L3" sqref="L3"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/BattleItem.xlsx
+++ b/data_config/BattleItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="10845"/>
+    <workbookView windowWidth="15960" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
   <si>
     <t>#</t>
   </si>
@@ -276,16 +276,34 @@
     <t>增加属性组数值(,|分割 目前只做一个属性之只受一种属性增加)</t>
   </si>
   <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>主动释放：加血，周围击晕 被动技能：增加移动速度   属性：增加100攻击和100点防御</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>0,10000,0|0,5000,0</t>
+  </si>
+  <si>
     <t>测试道具 1</t>
   </si>
   <si>
-    <t>主动释放：加血，周围击晕 被动技能：增加移动速度   属性：增加100攻击和100点防御</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>0,10000,0|0,5000,0</t>
+    <t>测试道具 1 介绍</t>
+  </si>
+  <si>
+    <t>测试道具 2</t>
+  </si>
+  <si>
+    <t>测试道具 2 介绍</t>
+  </si>
+  <si>
+    <t>测试道具 3</t>
+  </si>
+  <si>
+    <t>测试道具 3 介绍</t>
   </si>
   <si>
     <t>技能书-影袭风暴</t>
@@ -1458,7 +1476,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1627,22 +1645,71 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:12">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+    <row r="6" s="1" customFormat="1" spans="1:12">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>100101</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5">
+        <v>15004001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
       <c r="K6"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" customFormat="1" spans="3:5">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+    <row r="7" s="1" customFormat="1" spans="1:12">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>100102</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5">
+        <v>15004002</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:12">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>100103</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5">
+        <v>15004003</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" customFormat="1" spans="3:5">
       <c r="C9" s="2"/>
@@ -1657,10 +1724,10 @@
         <v>200001</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2">
         <v>15004001</v>
@@ -1686,10 +1753,10 @@
         <v>200002</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2">
         <v>15004002</v>
@@ -1720,10 +1787,10 @@
         <v>201000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2">
         <v>15004001</v>
@@ -1749,10 +1816,10 @@
         <v>201001</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2">
         <v>15004001</v>
@@ -1778,10 +1845,10 @@
         <v>201002</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2">
         <v>15004001</v>
@@ -1807,10 +1874,10 @@
         <v>201003</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2">
         <v>15004001</v>
@@ -1836,10 +1903,10 @@
         <v>201004</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2">
         <v>15004001</v>
@@ -1865,10 +1932,10 @@
         <v>201005</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2">
         <v>15004001</v>
@@ -1894,10 +1961,10 @@
         <v>201006</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2">
         <v>15004001</v>
@@ -1927,10 +1994,10 @@
         <v>202000</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E21" s="2">
         <v>15004002</v>
@@ -1956,10 +2023,10 @@
         <v>202001</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2">
         <v>15004002</v>
@@ -1985,10 +2052,10 @@
         <v>202002</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E23" s="2">
         <v>15004002</v>
@@ -2014,10 +2081,10 @@
         <v>202003</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2">
         <v>15004002</v>
@@ -2043,10 +2110,10 @@
         <v>202004</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E25" s="2">
         <v>15004002</v>
@@ -2072,10 +2139,10 @@
         <v>202005</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E26" s="2">
         <v>15004002</v>
@@ -2101,10 +2168,10 @@
         <v>202006</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E27" s="2">
         <v>15004002</v>
@@ -2130,10 +2197,10 @@
         <v>203000</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E29" s="2">
         <v>15004002</v>
@@ -2159,10 +2226,10 @@
         <v>203001</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E30" s="2">
         <v>15004002</v>
@@ -2188,10 +2255,10 @@
         <v>203002</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2">
         <v>15004002</v>
@@ -2217,10 +2284,10 @@
         <v>203003</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2">
         <v>15004002</v>
@@ -2246,10 +2313,10 @@
         <v>203004</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2">
         <v>15004002</v>
@@ -2275,10 +2342,10 @@
         <v>203005</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2">
         <v>15004002</v>
@@ -2304,10 +2371,10 @@
         <v>204000</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2">
         <v>15004001</v>
@@ -2333,10 +2400,10 @@
         <v>204001</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E37" s="2">
         <v>15004001</v>
@@ -2362,10 +2429,10 @@
         <v>204002</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E38" s="2">
         <v>15004001</v>
@@ -2391,10 +2458,10 @@
         <v>204003</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E39" s="2">
         <v>15004001</v>
@@ -2420,10 +2487,10 @@
         <v>204004</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E40" s="2">
         <v>15004001</v>
@@ -2449,10 +2516,10 @@
         <v>204005</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E41" s="2">
         <v>15004001</v>
@@ -2478,10 +2545,10 @@
         <v>500001</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2">
         <v>15002001</v>

--- a/data_config/BattleItem.xlsx
+++ b/data_config/BattleItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15960" windowHeight="10395"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1">
+    <comment ref="L3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -155,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="1">
+    <comment ref="M3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
   <si>
     <t>#</t>
   </si>
@@ -222,6 +222,9 @@
     <t>skillId</t>
   </si>
   <si>
+    <t>attrGroupConfigId</t>
+  </si>
+  <si>
     <t>addedAttrGroup</t>
   </si>
   <si>
@@ -268,6 +271,9 @@
   </si>
   <si>
     <t>包含的技能id（包含主动效果和被动效果）</t>
+  </si>
+  <si>
+    <t>增加的属性组配置Id</t>
   </si>
   <si>
     <t>增加的属性组(,分割)</t>
@@ -651,12 +657,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -977,7 +989,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1001,16 +1013,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1019,93 +1031,96 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1120,7 +1135,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1471,12 +1492,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E6" sqref="E6:E8"/>
+      <selection pane="topRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1486,16 +1507,16 @@
     <col min="4" max="5" width="29.25" customWidth="1"/>
     <col min="6" max="8" width="12.875" customWidth="1"/>
     <col min="9" max="9" width="18.75" customWidth="1"/>
-    <col min="10" max="10" width="20.625" customWidth="1"/>
-    <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="23.875" customWidth="1"/>
+    <col min="10" max="11" width="20.625" customWidth="1"/>
+    <col min="12" max="12" width="23" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1525,100 +1546,109 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:12">
+      <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <v>100001</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3">
         <v>15004001</v>
       </c>
       <c r="F4">
@@ -1633,103 +1663,114 @@
       <c r="J4">
         <v>2005001</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>31</v>
+      <c r="L4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:12">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:13">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1">
         <v>100101</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="C6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="6">
         <v>15004001</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="K6"/>
+      <c r="K6" s="1">
+        <v>100603</v>
+      </c>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:12">
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:13">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1">
         <v>100102</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="6">
         <v>15004002</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="K7"/>
+      <c r="K7" s="1">
+        <v>100604</v>
+      </c>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:12">
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:13">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1">
         <v>100103</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="C8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="6">
         <v>15004003</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="K8"/>
+      <c r="K8" s="1">
+        <v>100603</v>
+      </c>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" customFormat="1" spans="3:5">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" customFormat="1" spans="1:10">
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" customFormat="1" spans="3:13">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:13">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10">
         <v>200001</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3">
         <v>15004001</v>
       </c>
       <c r="F10">
@@ -1744,21 +1785,23 @@
       <c r="J10">
         <v>2001023</v>
       </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:10">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:13">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11">
         <v>200002</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3">
         <v>15004002</v>
       </c>
       <c r="F11">
@@ -1773,26 +1816,30 @@
       <c r="J11">
         <v>2001024</v>
       </c>
-    </row>
-    <row r="12" customFormat="1" spans="3:5">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" customFormat="1" spans="1:9">
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" customFormat="1" spans="3:13">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:13">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13">
         <v>201000</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="3">
         <v>15004001</v>
       </c>
       <c r="F13">
@@ -1807,21 +1854,23 @@
       <c r="I13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:9">
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:13">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14">
         <v>201001</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3">
         <v>15004001</v>
       </c>
       <c r="F14">
@@ -1836,21 +1885,23 @@
       <c r="I14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:9">
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:13">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15">
         <v>201002</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="C15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="3">
         <v>15004001</v>
       </c>
       <c r="F15">
@@ -1865,6 +1916,8 @@
       <c r="I15">
         <v>1</v>
       </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
@@ -1873,13 +1926,13 @@
       <c r="B16">
         <v>201003</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="3">
         <v>15004001</v>
       </c>
       <c r="F16">
@@ -1902,13 +1955,13 @@
       <c r="B17">
         <v>201004</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="3">
         <v>15004001</v>
       </c>
       <c r="F17">
@@ -1931,13 +1984,13 @@
       <c r="B18">
         <v>201005</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="C18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="3">
         <v>15004001</v>
       </c>
       <c r="F18">
@@ -1960,13 +2013,13 @@
       <c r="B19">
         <v>201006</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="C19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="3">
         <v>15004001</v>
       </c>
       <c r="F19">
@@ -1982,24 +2035,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="4:5">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" customFormat="1" spans="1:9">
+    <row r="20" customFormat="1" spans="4:13">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:13">
       <c r="A21" t="s">
         <v>0</v>
       </c>
       <c r="B21">
         <v>202000</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="C21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="3">
         <v>15004002</v>
       </c>
       <c r="F21">
@@ -2014,6 +2069,8 @@
       <c r="I21">
         <v>1</v>
       </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
@@ -2022,13 +2079,13 @@
       <c r="B22">
         <v>202001</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="C22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="3">
         <v>15004002</v>
       </c>
       <c r="F22">
@@ -2051,13 +2108,13 @@
       <c r="B23">
         <v>202002</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="C23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="3">
         <v>15004002</v>
       </c>
       <c r="F23">
@@ -2080,13 +2137,13 @@
       <c r="B24">
         <v>202003</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="C24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="3">
         <v>15004002</v>
       </c>
       <c r="F24">
@@ -2109,13 +2166,13 @@
       <c r="B25">
         <v>202004</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="C25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="3">
         <v>15004002</v>
       </c>
       <c r="F25">
@@ -2138,13 +2195,13 @@
       <c r="B26">
         <v>202005</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="C26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="3">
         <v>15004002</v>
       </c>
       <c r="F26">
@@ -2167,13 +2224,13 @@
       <c r="B27">
         <v>202006</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="C27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="3">
         <v>15004002</v>
       </c>
       <c r="F27">
@@ -2196,13 +2253,13 @@
       <c r="B29">
         <v>203000</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="C29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="3">
         <v>15004002</v>
       </c>
       <c r="F29">
@@ -2225,13 +2282,13 @@
       <c r="B30">
         <v>203001</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="C30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="3">
         <v>15004002</v>
       </c>
       <c r="F30">
@@ -2254,13 +2311,13 @@
       <c r="B31">
         <v>203002</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="C31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="3">
         <v>15004002</v>
       </c>
       <c r="F31">
@@ -2283,13 +2340,13 @@
       <c r="B32">
         <v>203003</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="C32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="3">
         <v>15004002</v>
       </c>
       <c r="F32">
@@ -2312,13 +2369,13 @@
       <c r="B33">
         <v>203004</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="C33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="3">
         <v>15004002</v>
       </c>
       <c r="F33">
@@ -2341,13 +2398,13 @@
       <c r="B34">
         <v>203005</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="C34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="3">
         <v>15004002</v>
       </c>
       <c r="F34">
@@ -2370,13 +2427,13 @@
       <c r="B36">
         <v>204000</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="C36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="3">
         <v>15004001</v>
       </c>
       <c r="F36">
@@ -2399,13 +2456,13 @@
       <c r="B37">
         <v>204001</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="C37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="3">
         <v>15004001</v>
       </c>
       <c r="F37">
@@ -2428,13 +2485,13 @@
       <c r="B38">
         <v>204002</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="C38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="3">
         <v>15004001</v>
       </c>
       <c r="F38">
@@ -2457,13 +2514,13 @@
       <c r="B39">
         <v>204003</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="C39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="3">
         <v>15004001</v>
       </c>
       <c r="F39">
@@ -2486,13 +2543,13 @@
       <c r="B40">
         <v>204004</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="C40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="3">
         <v>15004001</v>
       </c>
       <c r="F40">
@@ -2515,13 +2572,13 @@
       <c r="B41">
         <v>204005</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="C41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="3">
         <v>15004001</v>
       </c>
       <c r="F41">
@@ -2545,12 +2602,12 @@
         <v>500001</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="2">
+        <v>96</v>
+      </c>
+      <c r="E50" s="3">
         <v>15002001</v>
       </c>
       <c r="F50">

--- a/data_config/BattleItem.xlsx
+++ b/data_config/BattleItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="15810" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,13 +297,13 @@
     <t>测试道具 1</t>
   </si>
   <si>
-    <t>测试道具 1 介绍</t>
+    <t>测试道具 1 介绍 增加攻击力</t>
   </si>
   <si>
     <t>测试道具 2</t>
   </si>
   <si>
-    <t>测试道具 2 介绍</t>
+    <t>测试道具 2 介绍 增加护甲</t>
   </si>
   <si>
     <t>测试道具 3</t>
@@ -646,12 +646,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1495,9 +1495,9 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K7" sqref="K7"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/BattleItem.xlsx
+++ b/data_config/BattleItem.xlsx
@@ -1497,7 +1497,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
+      <selection pane="topRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/BattleItem.xlsx
+++ b/data_config/BattleItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15810" windowHeight="10395"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
   <si>
     <t>#</t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>金币</t>
+  </si>
+  <si>
+    <t>人口</t>
   </si>
 </sst>
 </file>
@@ -646,12 +649,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1492,12 +1495,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K6" sqref="K6"/>
+      <selection pane="topRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2619,6 +2622,34 @@
       <c r="I50">
         <v>0</v>
       </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:13">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>500101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="3">
+        <v>15002001</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/BattleItem.xlsx
+++ b/data_config/BattleItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="14940" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,10 +77,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0：蓝
-1：紫
-2：橙
-3：红</t>
+0：绿
+1：蓝
+2：紫
+3：橙
+4：红</t>
         </r>
       </text>
     </comment>
@@ -109,88 +110,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Zxy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
- //固定值--------------------
-        Attack = 1,
-        Defence = 2,
-        MaxHealth = 3,
-        AttackSpeed = 4,
-        MoveSpeed = 5,
-        AttackRange = 6,
-        CritRate = 7,
-        CritDamage = 8,
-        //输出伤害的比率(千分比)
-        OutputDamageRate = 9,
-        //承受伤害的比率(千分比)
-        InputDamageRate = 10,
-        //--------------------------
-        //千分比加成--------------------
-        Attack_Permillage = 1001,
-        Defence_Permillage = 1002,
-        MaxHealth_Permillage = 1003,
-        AttackSpeed_Permillage = 1004,
-        MoveSpeed_Permillage = 1005,
-        AttackRange_Permillage = 1006,
-        CritRate_Permillage = 1007,
-        CritDamage_Permillage = 1008,
-        OutputDamageRate_Permillage = 1009,
-        InputDamageRate_Permillage = 1010,</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Zxy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-x,y,
-x:类型
-  0 固定值
-  1 当前物理攻击的千分比
-  3 最大生命加成的千分比
-y:对应效果值 ， x:0 对应的是数值 其他的是千分比
-z:计算属性对应者
-0 : 释放者
-1 : 受效果者</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="101">
   <si>
     <t>#</t>
   </si>
@@ -225,24 +150,12 @@
     <t>attrGroupConfigId</t>
   </si>
   <si>
-    <t>addedAttrGroup</t>
-  </si>
-  <si>
-    <t>addedValueGroup</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>List&lt;int&gt;</t>
-  </si>
-  <si>
-    <t>List&lt;List&lt;int&gt;&gt;</t>
-  </si>
-  <si>
     <t>转表符</t>
   </si>
   <si>
@@ -276,24 +189,12 @@
     <t>增加的属性组配置Id</t>
   </si>
   <si>
-    <t>增加的属性组(,分割)</t>
-  </si>
-  <si>
-    <t>增加属性组数值(,|分割 目前只做一个属性之只受一种属性增加)</t>
-  </si>
-  <si>
     <t>道具</t>
   </si>
   <si>
     <t>主动释放：加血，周围击晕 被动技能：增加移动速度   属性：增加100攻击和100点防御</t>
   </si>
   <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>0,10000,0|0,5000,0</t>
-  </si>
-  <si>
     <t>测试道具 1</t>
   </si>
   <si>
@@ -310,6 +211,39 @@
   </si>
   <si>
     <t>测试道具 3 介绍</t>
+  </si>
+  <si>
+    <t>道具 增加 攻击力 100</t>
+  </si>
+  <si>
+    <t>增加攻击力 100</t>
+  </si>
+  <si>
+    <t>道具 增加 护甲 100</t>
+  </si>
+  <si>
+    <t>道具 增加 生命值 400</t>
+  </si>
+  <si>
+    <t>道具 增加 攻速 40%</t>
+  </si>
+  <si>
+    <t>道具 增加 移速 1.5</t>
+  </si>
+  <si>
+    <t>道具 增加 攻击距离 400</t>
+  </si>
+  <si>
+    <t>道具 15% 暴击几率</t>
+  </si>
+  <si>
+    <t>道具 50% 暴击伤害</t>
+  </si>
+  <si>
+    <t>道具 20 技能冷却</t>
+  </si>
+  <si>
+    <t>道具 生命恢复速度 150%</t>
   </si>
   <si>
     <t>技能书-影袭风暴</t>
@@ -660,18 +594,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -992,7 +920,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,16 +944,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1034,96 +962,93 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1138,13 +1063,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1495,31 +1420,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D33" sqref="D33"/>
+      <selection pane="topRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="33.25" customWidth="1"/>
-    <col min="4" max="5" width="29.25" customWidth="1"/>
+    <col min="4" max="4" width="29.25" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="29.25" customWidth="1"/>
     <col min="6" max="8" width="12.875" customWidth="1"/>
     <col min="9" max="9" width="18.75" customWidth="1"/>
     <col min="10" max="11" width="20.625" customWidth="1"/>
-    <col min="12" max="12" width="23" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1549,109 +1473,88 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:11">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:13">
-      <c r="A3" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4">
         <v>100001</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
         <v>15004001</v>
       </c>
       <c r="F4">
@@ -1666,32 +1569,24 @@
       <c r="J4">
         <v>2005001</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:13">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:11">
+      <c r="A6"/>
       <c r="B6" s="1">
         <v>100101</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5">
         <v>15004001</v>
       </c>
       <c r="F6" s="1">
@@ -1700,23 +1595,19 @@
       <c r="K6" s="1">
         <v>100603</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:13">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:11">
+      <c r="A7"/>
       <c r="B7" s="1">
         <v>100102</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5">
         <v>15004002</v>
       </c>
       <c r="F7" s="1">
@@ -1725,23 +1616,19 @@
       <c r="K7" s="1">
         <v>100604</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:13">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:11">
+      <c r="A8"/>
       <c r="B8" s="1">
         <v>100103</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5">
         <v>15004003</v>
       </c>
       <c r="F8" s="1">
@@ -1750,676 +1637,451 @@
       <c r="K8" s="1">
         <v>100603</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" customFormat="1" spans="3:13">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" customFormat="1" spans="1:13">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
+    </row>
+    <row r="9" customFormat="1" spans="3:5">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" customFormat="1" spans="3:5">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>100001</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5">
+        <v>15004001</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>3000001</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:11">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>100002</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5">
+        <v>15004002</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>3000002</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:11">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>100003</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5">
+        <v>15004003</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>3000003</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:11">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>100004</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5">
+        <v>15004001</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>3000004</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:11">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>100005</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="5">
+        <v>15004002</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>3000005</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:11">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>100006</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5">
+        <v>15004003</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>3000006</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:11">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>100007</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="5">
+        <v>15004001</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>3000007</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:11">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>100008</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="5">
+        <v>15004002</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>3000008</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:11">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>100009</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="5">
+        <v>15004003</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>3000009</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:11">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>100010</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="5">
+        <v>15004001</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>3000010</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="3:5">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" customFormat="1" spans="3:5">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" customFormat="1" spans="3:5">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:5">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:5">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" customFormat="1" spans="1:5">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" customFormat="1" spans="1:5">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" customFormat="1" spans="1:5">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:5">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:10">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
         <v>200001</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="C30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="2">
         <v>15004001</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
         <v>2001023</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" customFormat="1" spans="1:13">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
+    </row>
+    <row r="31" customFormat="1" spans="1:10">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
         <v>200002</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="C31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="2">
         <v>15004002</v>
       </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
         <v>2001024</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" customFormat="1" spans="3:13">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" customFormat="1" spans="1:13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
+    </row>
+    <row r="32" customFormat="1" spans="3:5">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:9">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
         <v>201000</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="C33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="2">
         <v>15004001</v>
       </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" customFormat="1" spans="1:13">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:9">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
         <v>201001</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="C34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="2">
         <v>15004001</v>
       </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:13">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:9">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
         <v>201002</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="C35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="2">
         <v>15004001</v>
       </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>201003</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="3">
-        <v>15004001</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>201004</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="3">
-        <v>15004001</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>201005</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="3">
-        <v>15004001</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>201006</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="3">
-        <v>15004001</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="4:13">
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" customFormat="1" spans="1:13">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>202000</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="3">
-        <v>15004002</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>202001</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="3">
-        <v>15004002</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>202002</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="3">
-        <v>15004002</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>202003</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="3">
-        <v>15004002</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>202004</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="3">
-        <v>15004002</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>202005</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="3">
-        <v>15004002</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>202006</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="3">
-        <v>15004002</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>203000</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="3">
-        <v>15004002</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>203001</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="3">
-        <v>15004002</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>203002</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="3">
-        <v>15004002</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>203003</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="3">
-        <v>15004002</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>203004</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="3">
-        <v>15004002</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <v>203005</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="3">
-        <v>15004002</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>1</v>
       </c>
     </row>
@@ -2428,22 +2090,22 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>204000</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="3">
+        <v>201003</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="2">
         <v>15004001</v>
       </c>
       <c r="F36">
         <v>2</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2457,22 +2119,22 @@
         <v>0</v>
       </c>
       <c r="B37">
-        <v>204001</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="3">
+        <v>201004</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="2">
         <v>15004001</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2486,22 +2148,22 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <v>204002</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="3">
+        <v>201005</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="2">
         <v>15004001</v>
       </c>
       <c r="F38">
         <v>2</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2515,22 +2177,22 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>204003</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="3">
+        <v>201006</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="2">
         <v>15004001</v>
       </c>
       <c r="F39">
         <v>2</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2539,61 +2201,239 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40">
-        <v>204004</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="3">
-        <v>15004001</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>3</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+    <row r="40" customFormat="1" spans="4:5">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" customFormat="1" spans="1:9">
       <c r="A41" t="s">
         <v>0</v>
       </c>
       <c r="B41">
-        <v>204005</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="3">
-        <v>15004001</v>
+        <v>202000</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="2">
+        <v>15004002</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>202001</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>202002</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>202003</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>202004</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>202005</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>202006</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>203000</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>1</v>
       </c>
     </row>
@@ -2602,54 +2442,371 @@
         <v>0</v>
       </c>
       <c r="B50">
+        <v>203001</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>203002</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>203003</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>203004</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>203005</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>204000</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>204001</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>204002</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>204003</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>204004</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>204005</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
         <v>500001</v>
       </c>
-      <c r="C50" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" s="3">
+      <c r="C70" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" s="2">
         <v>15002001</v>
       </c>
-      <c r="F50">
+      <c r="F70">
         <v>5</v>
       </c>
-      <c r="H50">
-        <v>2</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:13">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51">
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:9">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
         <v>500101</v>
       </c>
-      <c r="C51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="C71" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" s="2">
         <v>15002001</v>
       </c>
-      <c r="F51">
+      <c r="F71">
         <v>5</v>
       </c>
-      <c r="H51">
-        <v>2</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/BattleItem.xlsx
+++ b/data_config/BattleItem.xlsx
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="103">
   <si>
     <t>#</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>道具 生命恢复速度 150%</t>
+  </si>
+  <si>
+    <t>道具 增加 10% 增伤 和 10% 减伤</t>
+  </si>
+  <si>
+    <t>道具 叠加暴击 增加 增加 250 攻击力和 100%爆伤</t>
   </si>
   <si>
     <t>技能书-影袭风暴</t>
@@ -1044,7 +1050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,14 +1069,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1422,10 +1422,10 @@
   <sheetPr/>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C28" sqref="C28"/>
+      <selection pane="topRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1878,15 +1878,54 @@
         <v>3000010</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="3:5">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" customFormat="1" spans="3:5">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+    <row r="21" customFormat="1" spans="1:11">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>100011</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="5">
+        <v>15004002</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>3000011</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:11">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>100012</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="5">
+        <v>15004003</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>2820101</v>
+      </c>
+      <c r="K22">
+        <v>3000012</v>
+      </c>
     </row>
     <row r="23" customFormat="1" spans="3:5">
       <c r="C23" s="2"/>
@@ -1894,44 +1933,44 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" customFormat="1" spans="1:5">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" customFormat="1" spans="1:5">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" customFormat="1" spans="1:5">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" customFormat="1" spans="1:5">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" customFormat="1" spans="1:5">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" customFormat="1" spans="1:5">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
@@ -1943,10 +1982,10 @@
         <v>200001</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2">
         <v>15004001</v>
@@ -1972,10 +2011,10 @@
         <v>200002</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2">
         <v>15004002</v>
@@ -2006,10 +2045,10 @@
         <v>201000</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2">
         <v>15004001</v>
@@ -2035,10 +2074,10 @@
         <v>201001</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E34" s="2">
         <v>15004001</v>
@@ -2064,10 +2103,10 @@
         <v>201002</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E35" s="2">
         <v>15004001</v>
@@ -2093,10 +2132,10 @@
         <v>201003</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2">
         <v>15004001</v>
@@ -2122,10 +2161,10 @@
         <v>201004</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E37" s="2">
         <v>15004001</v>
@@ -2151,10 +2190,10 @@
         <v>201005</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E38" s="2">
         <v>15004001</v>
@@ -2180,10 +2219,10 @@
         <v>201006</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E39" s="2">
         <v>15004001</v>
@@ -2213,10 +2252,10 @@
         <v>202000</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E41" s="2">
         <v>15004002</v>
@@ -2242,10 +2281,10 @@
         <v>202001</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E42" s="2">
         <v>15004002</v>
@@ -2271,10 +2310,10 @@
         <v>202002</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E43" s="2">
         <v>15004002</v>
@@ -2300,10 +2339,10 @@
         <v>202003</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E44" s="2">
         <v>15004002</v>
@@ -2329,10 +2368,10 @@
         <v>202004</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E45" s="2">
         <v>15004002</v>
@@ -2358,10 +2397,10 @@
         <v>202005</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2">
         <v>15004002</v>
@@ -2387,10 +2426,10 @@
         <v>202006</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2">
         <v>15004002</v>
@@ -2416,10 +2455,10 @@
         <v>203000</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2">
         <v>15004002</v>
@@ -2445,10 +2484,10 @@
         <v>203001</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2">
         <v>15004002</v>
@@ -2474,10 +2513,10 @@
         <v>203002</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2">
         <v>15004002</v>
@@ -2503,10 +2542,10 @@
         <v>203003</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2">
         <v>15004002</v>
@@ -2532,10 +2571,10 @@
         <v>203004</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2">
         <v>15004002</v>
@@ -2561,10 +2600,10 @@
         <v>203005</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2">
         <v>15004002</v>
@@ -2590,10 +2629,10 @@
         <v>204000</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2">
         <v>15004001</v>
@@ -2619,10 +2658,10 @@
         <v>204001</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2">
         <v>15004001</v>
@@ -2648,10 +2687,10 @@
         <v>204002</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2">
         <v>15004001</v>
@@ -2677,10 +2716,10 @@
         <v>204003</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2">
         <v>15004001</v>
@@ -2706,10 +2745,10 @@
         <v>204004</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2">
         <v>15004001</v>
@@ -2735,10 +2774,10 @@
         <v>204005</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2">
         <v>15004001</v>
@@ -2764,10 +2803,10 @@
         <v>500001</v>
       </c>
       <c r="C70" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D70" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2">
         <v>15002001</v>
@@ -2790,10 +2829,10 @@
         <v>500101</v>
       </c>
       <c r="C71" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D71" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2">
         <v>15002001</v>

--- a/data_config/BattleItem.xlsx
+++ b/data_config/BattleItem.xlsx
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="104">
   <si>
     <t>#</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>道具 叠加暴击 增加 增加 250 攻击力和 100%爆伤</t>
+  </si>
+  <si>
+    <t>道具 被攻击时向攻击者发射一个攻击球（护甲加成） 增加 600 生命值 和 300 护甲</t>
   </si>
   <si>
     <t>技能书-影袭风暴</t>
@@ -1425,7 +1428,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B22" sqref="B22"/>
+      <selection pane="topRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1927,10 +1930,31 @@
         <v>3000012</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="3:5">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+    <row r="23" customFormat="1" spans="1:11">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>100013</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="5">
+        <v>15004001</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>2820201</v>
+      </c>
+      <c r="K23">
+        <v>3000014</v>
+      </c>
     </row>
     <row r="24" customFormat="1" spans="1:5">
       <c r="A24" s="1"/>
@@ -1982,10 +2006,10 @@
         <v>200001</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2">
         <v>15004001</v>
@@ -2011,10 +2035,10 @@
         <v>200002</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2">
         <v>15004002</v>
@@ -2045,10 +2069,10 @@
         <v>201000</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E33" s="2">
         <v>15004001</v>
@@ -2074,10 +2098,10 @@
         <v>201001</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2">
         <v>15004001</v>
@@ -2103,10 +2127,10 @@
         <v>201002</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2">
         <v>15004001</v>
@@ -2132,10 +2156,10 @@
         <v>201003</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E36" s="2">
         <v>15004001</v>
@@ -2161,10 +2185,10 @@
         <v>201004</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E37" s="2">
         <v>15004001</v>
@@ -2190,10 +2214,10 @@
         <v>201005</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E38" s="2">
         <v>15004001</v>
@@ -2219,10 +2243,10 @@
         <v>201006</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E39" s="2">
         <v>15004001</v>
@@ -2252,10 +2276,10 @@
         <v>202000</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E41" s="2">
         <v>15004002</v>
@@ -2281,10 +2305,10 @@
         <v>202001</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E42" s="2">
         <v>15004002</v>
@@ -2310,10 +2334,10 @@
         <v>202002</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E43" s="2">
         <v>15004002</v>
@@ -2339,10 +2363,10 @@
         <v>202003</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44" s="2">
         <v>15004002</v>
@@ -2368,10 +2392,10 @@
         <v>202004</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E45" s="2">
         <v>15004002</v>
@@ -2397,10 +2421,10 @@
         <v>202005</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2">
         <v>15004002</v>
@@ -2426,10 +2450,10 @@
         <v>202006</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2">
         <v>15004002</v>
@@ -2455,10 +2479,10 @@
         <v>203000</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2">
         <v>15004002</v>
@@ -2484,10 +2508,10 @@
         <v>203001</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2">
         <v>15004002</v>
@@ -2513,10 +2537,10 @@
         <v>203002</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2">
         <v>15004002</v>
@@ -2542,10 +2566,10 @@
         <v>203003</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2">
         <v>15004002</v>
@@ -2571,10 +2595,10 @@
         <v>203004</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2">
         <v>15004002</v>
@@ -2600,10 +2624,10 @@
         <v>203005</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2">
         <v>15004002</v>
@@ -2629,10 +2653,10 @@
         <v>204000</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2">
         <v>15004001</v>
@@ -2658,10 +2682,10 @@
         <v>204001</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2">
         <v>15004001</v>
@@ -2687,10 +2711,10 @@
         <v>204002</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2">
         <v>15004001</v>
@@ -2716,10 +2740,10 @@
         <v>204003</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2">
         <v>15004001</v>
@@ -2745,10 +2769,10 @@
         <v>204004</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2">
         <v>15004001</v>
@@ -2774,10 +2798,10 @@
         <v>204005</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2">
         <v>15004001</v>
@@ -2803,10 +2827,10 @@
         <v>500001</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2">
         <v>15002001</v>
@@ -2829,10 +2853,10 @@
         <v>500101</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E71" s="2">
         <v>15002001</v>

--- a/data_config/BattleItem.xlsx
+++ b/data_config/BattleItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14940" windowHeight="10890"/>
+    <workbookView windowWidth="16005" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="105">
   <si>
     <t>#</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>道具 被攻击时向攻击者发射一个攻击球（护甲加成） 增加 600 生命值 和 300 护甲</t>
+  </si>
+  <si>
+    <t>道具 增加所有治疗效果40% 增加 60 技能冷却 和 300 生命值</t>
   </si>
   <si>
     <t>技能书-影袭风暴</t>
@@ -1426,9 +1429,9 @@
   <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J24" sqref="J24"/>
+      <selection pane="topRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1956,12 +1959,31 @@
         <v>3000014</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+    <row r="24" customFormat="1" spans="1:11">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>100014</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="5">
+        <v>15004001</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>2820301</v>
+      </c>
+      <c r="K24">
+        <v>3000015</v>
+      </c>
     </row>
     <row r="25" customFormat="1" spans="1:5">
       <c r="A25" s="1"/>
@@ -2006,10 +2028,10 @@
         <v>200001</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E30" s="2">
         <v>15004001</v>
@@ -2035,10 +2057,10 @@
         <v>200002</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2">
         <v>15004002</v>
@@ -2069,10 +2091,10 @@
         <v>201000</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E33" s="2">
         <v>15004001</v>
@@ -2098,10 +2120,10 @@
         <v>201001</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E34" s="2">
         <v>15004001</v>
@@ -2127,10 +2149,10 @@
         <v>201002</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E35" s="2">
         <v>15004001</v>
@@ -2156,10 +2178,10 @@
         <v>201003</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E36" s="2">
         <v>15004001</v>
@@ -2185,10 +2207,10 @@
         <v>201004</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E37" s="2">
         <v>15004001</v>
@@ -2214,10 +2236,10 @@
         <v>201005</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E38" s="2">
         <v>15004001</v>
@@ -2243,10 +2265,10 @@
         <v>201006</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E39" s="2">
         <v>15004001</v>
@@ -2276,10 +2298,10 @@
         <v>202000</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E41" s="2">
         <v>15004002</v>
@@ -2305,10 +2327,10 @@
         <v>202001</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E42" s="2">
         <v>15004002</v>
@@ -2334,10 +2356,10 @@
         <v>202002</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43" s="2">
         <v>15004002</v>
@@ -2363,10 +2385,10 @@
         <v>202003</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E44" s="2">
         <v>15004002</v>
@@ -2392,10 +2414,10 @@
         <v>202004</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2">
         <v>15004002</v>
@@ -2421,10 +2443,10 @@
         <v>202005</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2">
         <v>15004002</v>
@@ -2450,10 +2472,10 @@
         <v>202006</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2">
         <v>15004002</v>
@@ -2479,10 +2501,10 @@
         <v>203000</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2">
         <v>15004002</v>
@@ -2508,10 +2530,10 @@
         <v>203001</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2">
         <v>15004002</v>
@@ -2537,10 +2559,10 @@
         <v>203002</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2">
         <v>15004002</v>
@@ -2566,10 +2588,10 @@
         <v>203003</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2">
         <v>15004002</v>
@@ -2595,10 +2617,10 @@
         <v>203004</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2">
         <v>15004002</v>
@@ -2624,10 +2646,10 @@
         <v>203005</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2">
         <v>15004002</v>
@@ -2653,10 +2675,10 @@
         <v>204000</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2">
         <v>15004001</v>
@@ -2682,10 +2704,10 @@
         <v>204001</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2">
         <v>15004001</v>
@@ -2711,10 +2733,10 @@
         <v>204002</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2">
         <v>15004001</v>
@@ -2740,10 +2762,10 @@
         <v>204003</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2">
         <v>15004001</v>
@@ -2769,10 +2791,10 @@
         <v>204004</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2">
         <v>15004001</v>
@@ -2798,10 +2820,10 @@
         <v>204005</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2">
         <v>15004001</v>
@@ -2827,10 +2849,10 @@
         <v>500001</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E70" s="2">
         <v>15002001</v>
@@ -2853,10 +2875,10 @@
         <v>500101</v>
       </c>
       <c r="C71" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D71" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2">
         <v>15002001</v>

--- a/data_config/BattleItem.xlsx
+++ b/data_config/BattleItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16005" windowHeight="10890"/>
+    <workbookView windowWidth="17490" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
   <si>
     <t>#</t>
   </si>
@@ -165,7 +165,7 @@
     <t>名称</t>
   </si>
   <si>
-    <t>介绍</t>
+    <t>备注</t>
   </si>
   <si>
     <t>图片资源id</t>
@@ -189,241 +189,184 @@
     <t>增加的属性组配置Id</t>
   </si>
   <si>
+    <t>道具1</t>
+  </si>
+  <si>
+    <t>道具 增加 攻击力 100</t>
+  </si>
+  <si>
+    <t>道具2</t>
+  </si>
+  <si>
+    <t>道具 增加 护甲 100</t>
+  </si>
+  <si>
+    <t>道具3</t>
+  </si>
+  <si>
+    <t>道具 增加 生命值 400</t>
+  </si>
+  <si>
+    <t>道具4</t>
+  </si>
+  <si>
+    <t>道具 增加 攻速 40%</t>
+  </si>
+  <si>
+    <t>道具5</t>
+  </si>
+  <si>
+    <t>道具 增加 移速 1.5</t>
+  </si>
+  <si>
+    <t>道具6</t>
+  </si>
+  <si>
+    <t>道具 增加 攻击距离 400</t>
+  </si>
+  <si>
+    <t>道具7</t>
+  </si>
+  <si>
+    <t>道具 15% 暴击几率</t>
+  </si>
+  <si>
+    <t>道具8</t>
+  </si>
+  <si>
+    <t>道具 50% 暴击伤害</t>
+  </si>
+  <si>
+    <t>道具9</t>
+  </si>
+  <si>
+    <t>道具 20 技能冷却</t>
+  </si>
+  <si>
+    <t>道具10</t>
+  </si>
+  <si>
+    <t>道具 生命恢复速度 150%</t>
+  </si>
+  <si>
+    <t>道具11</t>
+  </si>
+  <si>
+    <t>道具 增加 10% 增伤 和 10% 减伤</t>
+  </si>
+  <si>
+    <t>道具12</t>
+  </si>
+  <si>
+    <t>道具 叠加暴击 增加 增加 250 攻击力和 100%爆伤</t>
+  </si>
+  <si>
+    <t>道具13</t>
+  </si>
+  <si>
+    <t>道具 被攻击时向攻击者发射一个攻击球（护甲加成） 增加 600 生命值 和 300 护甲</t>
+  </si>
+  <si>
+    <t>道具14</t>
+  </si>
+  <si>
+    <t>道具 增加所有治疗效果40% 增加 60 技能冷却 和 300 生命值</t>
+  </si>
+  <si>
     <t>道具</t>
   </si>
   <si>
-    <t>主动释放：加血，周围击晕 被动技能：增加移动速度   属性：增加100攻击和100点防御</t>
-  </si>
-  <si>
     <t>测试道具 1</t>
   </si>
   <si>
-    <t>测试道具 1 介绍 增加攻击力</t>
-  </si>
-  <si>
     <t>测试道具 2</t>
   </si>
   <si>
-    <t>测试道具 2 介绍 增加护甲</t>
-  </si>
-  <si>
     <t>测试道具 3</t>
   </si>
   <si>
-    <t>测试道具 3 介绍</t>
-  </si>
-  <si>
-    <t>道具 增加 攻击力 100</t>
-  </si>
-  <si>
-    <t>增加攻击力 100</t>
-  </si>
-  <si>
-    <t>道具 增加 护甲 100</t>
-  </si>
-  <si>
-    <t>道具 增加 生命值 400</t>
-  </si>
-  <si>
-    <t>道具 增加 攻速 40%</t>
-  </si>
-  <si>
-    <t>道具 增加 移速 1.5</t>
-  </si>
-  <si>
-    <t>道具 增加 攻击距离 400</t>
-  </si>
-  <si>
-    <t>道具 15% 暴击几率</t>
-  </si>
-  <si>
-    <t>道具 50% 暴击伤害</t>
-  </si>
-  <si>
-    <t>道具 20 技能冷却</t>
-  </si>
-  <si>
-    <t>道具 生命恢复速度 150%</t>
-  </si>
-  <si>
-    <t>道具 增加 10% 增伤 和 10% 减伤</t>
-  </si>
-  <si>
-    <t>道具 叠加暴击 增加 增加 250 攻击力和 100%爆伤</t>
-  </si>
-  <si>
-    <t>道具 被攻击时向攻击者发射一个攻击球（护甲加成） 增加 600 生命值 和 300 护甲</t>
-  </si>
-  <si>
-    <t>道具 增加所有治疗效果40% 增加 60 技能冷却 和 300 生命值</t>
-  </si>
-  <si>
     <t>技能书-影袭风暴</t>
   </si>
   <si>
-    <t>学习技能：影袭风暴</t>
-  </si>
-  <si>
     <t>技能书-血蚀阵痕</t>
   </si>
   <si>
-    <t>学习技能：血蚀阵痕</t>
-  </si>
-  <si>
     <t>技能书：蓝：1</t>
   </si>
   <si>
-    <t>学习技能：蓝：1</t>
-  </si>
-  <si>
     <t>技能书：蓝：2</t>
   </si>
   <si>
-    <t>学习技能：蓝：2</t>
-  </si>
-  <si>
     <t>技能书：蓝：3</t>
   </si>
   <si>
-    <t>学习技能：蓝：3</t>
-  </si>
-  <si>
     <t>技能书：蓝：4</t>
   </si>
   <si>
-    <t>学习技能：蓝：4</t>
-  </si>
-  <si>
     <t>技能书：蓝：5</t>
   </si>
   <si>
-    <t>学习技能：蓝：5</t>
-  </si>
-  <si>
     <t>技能书：蓝：6</t>
   </si>
   <si>
-    <t>学习技能：蓝：6</t>
-  </si>
-  <si>
     <t>技能书：蓝：7</t>
   </si>
   <si>
-    <t>学习技能：蓝：7</t>
-  </si>
-  <si>
     <t>技能书：紫：1</t>
   </si>
   <si>
-    <t>学习技能：紫：1</t>
-  </si>
-  <si>
     <t>技能书：紫：2</t>
   </si>
   <si>
-    <t>学习技能：紫：2</t>
-  </si>
-  <si>
     <t>技能书：紫：3</t>
   </si>
   <si>
-    <t>学习技能：紫：3</t>
-  </si>
-  <si>
     <t>技能书：紫：4</t>
   </si>
   <si>
-    <t>学习技能：紫：4</t>
-  </si>
-  <si>
     <t>技能书：紫：5</t>
   </si>
   <si>
-    <t>学习技能：紫：5</t>
-  </si>
-  <si>
     <t>技能书：紫：6</t>
   </si>
   <si>
-    <t>学习技能：紫：6</t>
-  </si>
-  <si>
     <t>技能书：紫：7</t>
   </si>
   <si>
-    <t>学习技能：紫：7</t>
-  </si>
-  <si>
     <t>技能书：橙：1</t>
   </si>
   <si>
-    <t>学习技能：橙：1</t>
-  </si>
-  <si>
     <t>技能书：橙：2</t>
   </si>
   <si>
-    <t>学习技能：橙：2</t>
-  </si>
-  <si>
     <t>技能书：橙：3</t>
   </si>
   <si>
-    <t>学习技能：橙：3</t>
-  </si>
-  <si>
     <t>技能书：橙：4</t>
   </si>
   <si>
-    <t>学习技能：橙：4</t>
-  </si>
-  <si>
     <t>技能书：橙：5</t>
   </si>
   <si>
-    <t>学习技能：橙：5</t>
-  </si>
-  <si>
     <t>技能书：橙：6</t>
   </si>
   <si>
-    <t>学习技能：橙：6</t>
-  </si>
-  <si>
     <t>技能书：红：1</t>
   </si>
   <si>
-    <t>学习技能：红：1</t>
-  </si>
-  <si>
     <t>技能书：红：2</t>
   </si>
   <si>
-    <t>学习技能：红：2</t>
-  </si>
-  <si>
     <t>技能书：红：3</t>
   </si>
   <si>
-    <t>学习技能：红：3</t>
-  </si>
-  <si>
     <t>技能书：红：4</t>
   </si>
   <si>
-    <t>学习技能：红：4</t>
-  </si>
-  <si>
     <t>技能书：红：5</t>
   </si>
   <si>
-    <t>学习技能：红：5</t>
-  </si>
-  <si>
     <t>技能书：红：6</t>
-  </si>
-  <si>
-    <t>学习技能：红：6</t>
   </si>
   <si>
     <t>金币</t>
@@ -1429,17 +1372,16 @@
   <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C22" sqref="C22"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="33.25" customWidth="1"/>
-    <col min="4" max="4" width="29.25" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="29.25" customWidth="1"/>
+    <col min="4" max="5" width="29.25" customWidth="1"/>
     <col min="6" max="8" width="12.875" customWidth="1"/>
     <col min="9" max="9" width="18.75" customWidth="1"/>
     <col min="10" max="11" width="20.625" customWidth="1"/>
@@ -1550,131 +1492,152 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4">
-        <v>100001</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2">
-        <v>15004001</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>2005001</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5">
+    <row r="4" customFormat="1" spans="3:5">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="1" spans="3:5">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:11">
-      <c r="A6"/>
+    <row r="6" customFormat="1" spans="1:11">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
       <c r="B6" s="1">
-        <v>100101</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>100001</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="5">
         <v>15004001</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>100603</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:11">
-      <c r="A7"/>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3000001</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:11">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
       <c r="B7" s="1">
-        <v>100102</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
+        <v>100002</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="5">
         <v>15004002</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>100604</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:11">
-      <c r="A8"/>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3000002</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:11">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
       <c r="B8" s="1">
-        <v>100103</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>100003</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="5">
         <v>15004003</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>100603</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="3:5">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" customFormat="1" spans="3:5">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>3000003</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:11">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>100004</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5">
+        <v>15004001</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>3000004</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:11">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>100005</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5">
+        <v>15004002</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>3000005</v>
+      </c>
     </row>
     <row r="11" customFormat="1" spans="1:11">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1">
-        <v>100001</v>
+        <v>100006</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="5">
-        <v>15004001</v>
+        <v>15004003</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>3000001</v>
+        <v>3000006</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:11">
@@ -1682,22 +1645,22 @@
         <v>0</v>
       </c>
       <c r="B12" s="1">
-        <v>100002</v>
+        <v>100007</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E12" s="5">
-        <v>15004002</v>
+        <v>15004001</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>3000002</v>
+        <v>3000007</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:11">
@@ -1705,22 +1668,22 @@
         <v>0</v>
       </c>
       <c r="B13" s="1">
-        <v>100003</v>
+        <v>100008</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5">
-        <v>15004003</v>
+        <v>15004002</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>3000003</v>
+        <v>3000008</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:11">
@@ -1728,22 +1691,22 @@
         <v>0</v>
       </c>
       <c r="B14" s="1">
-        <v>100004</v>
+        <v>100009</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E14" s="5">
-        <v>15004001</v>
+        <v>15004003</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>3000004</v>
+        <v>3000009</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:11">
@@ -1751,22 +1714,22 @@
         <v>0</v>
       </c>
       <c r="B15" s="1">
-        <v>100005</v>
+        <v>100010</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E15" s="5">
-        <v>15004002</v>
+        <v>15004001</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>3000005</v>
+        <v>3000010</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:11">
@@ -1774,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="B16" s="1">
-        <v>100006</v>
+        <v>100011</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E16" s="5">
-        <v>15004003</v>
+        <v>15004002</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>3000006</v>
+        <v>3000011</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:11">
@@ -1797,22 +1760,25 @@
         <v>0</v>
       </c>
       <c r="B17" s="1">
-        <v>100007</v>
+        <v>100012</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E17" s="5">
-        <v>15004001</v>
+        <v>15004003</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
+      <c r="J17">
+        <v>2820101</v>
+      </c>
       <c r="K17">
-        <v>3000007</v>
+        <v>3000012</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:11">
@@ -1820,22 +1786,25 @@
         <v>0</v>
       </c>
       <c r="B18" s="1">
-        <v>100008</v>
+        <v>100013</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E18" s="5">
-        <v>15004002</v>
+        <v>15004001</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
+      <c r="J18">
+        <v>2820201</v>
+      </c>
       <c r="K18">
-        <v>3000008</v>
+        <v>3000014</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:11">
@@ -1843,161 +1812,134 @@
         <v>0</v>
       </c>
       <c r="B19" s="1">
-        <v>100009</v>
+        <v>100014</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E19" s="5">
-        <v>15004003</v>
+        <v>15004001</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
+      <c r="J19">
+        <v>2820301</v>
+      </c>
       <c r="K19">
-        <v>3000009</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:11">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>100010</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="5">
+        <v>3000015</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:5">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:5">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22">
+        <v>100001</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="2">
         <v>15004001</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>3000010</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:11">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>100011</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="5">
-        <v>15004002</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>3000011</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:11">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>100012</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="5">
-        <v>15004003</v>
-      </c>
       <c r="F22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
       <c r="J22">
-        <v>2820101</v>
-      </c>
-      <c r="K22">
-        <v>3000012</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:11">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>100013</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="5">
-        <v>15004001</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>2820201</v>
-      </c>
-      <c r="K23">
-        <v>3000014</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:11">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
+        <v>2005001</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:11">
+      <c r="A24"/>
       <c r="B24" s="1">
-        <v>100014</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>100101</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E24" s="5">
         <v>15004001</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>2820301</v>
-      </c>
-      <c r="K24">
-        <v>3000015</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:5">
-      <c r="A25" s="1"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" customFormat="1" spans="1:5">
-      <c r="A26" s="1"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>100603</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:11">
+      <c r="A25"/>
+      <c r="B25" s="1">
+        <v>100102</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="5">
+        <v>15004002</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>100604</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:11">
+      <c r="A26"/>
+      <c r="B26" s="1">
+        <v>100103</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="5">
+        <v>15004003</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>100603</v>
+      </c>
     </row>
     <row r="27" customFormat="1" spans="1:5">
       <c r="A27" s="1"/>
@@ -2028,11 +1970,9 @@
         <v>200001</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="2">
         <v>15004001</v>
       </c>
@@ -2057,11 +1997,9 @@
         <v>200002</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="2">
         <v>15004002</v>
       </c>
@@ -2091,11 +2029,9 @@
         <v>201000</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2">
         <v>15004001</v>
       </c>
@@ -2120,11 +2056,9 @@
         <v>201001</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2">
         <v>15004001</v>
       </c>
@@ -2149,11 +2083,9 @@
         <v>201002</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2">
         <v>15004001</v>
       </c>
@@ -2178,11 +2110,9 @@
         <v>201003</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="2">
         <v>15004001</v>
       </c>
@@ -2207,11 +2137,9 @@
         <v>201004</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2">
         <v>15004001</v>
       </c>
@@ -2236,11 +2164,9 @@
         <v>201005</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="2">
         <v>15004001</v>
       </c>
@@ -2265,11 +2191,9 @@
         <v>201006</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="2">
         <v>15004001</v>
       </c>
@@ -2300,9 +2224,7 @@
       <c r="C41" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="2">
         <v>15004002</v>
       </c>
@@ -2327,11 +2249,9 @@
         <v>202001</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="2">
         <v>15004002</v>
       </c>
@@ -2356,11 +2276,9 @@
         <v>202002</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="2">
         <v>15004002</v>
       </c>
@@ -2385,11 +2303,9 @@
         <v>202003</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2">
         <v>15004002</v>
       </c>
@@ -2414,11 +2330,9 @@
         <v>202004</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D45" s="2"/>
       <c r="E45" s="2">
         <v>15004002</v>
       </c>
@@ -2443,11 +2357,9 @@
         <v>202005</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D46" s="2"/>
       <c r="E46" s="2">
         <v>15004002</v>
       </c>
@@ -2472,11 +2384,9 @@
         <v>202006</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D47" s="2"/>
       <c r="E47" s="2">
         <v>15004002</v>
       </c>
@@ -2501,11 +2411,9 @@
         <v>203000</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D49" s="2"/>
       <c r="E49" s="2">
         <v>15004002</v>
       </c>
@@ -2530,11 +2438,9 @@
         <v>203001</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2">
         <v>15004002</v>
       </c>
@@ -2559,11 +2465,9 @@
         <v>203002</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="2">
         <v>15004002</v>
       </c>
@@ -2588,11 +2492,9 @@
         <v>203003</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D52" s="2"/>
       <c r="E52" s="2">
         <v>15004002</v>
       </c>
@@ -2617,11 +2519,9 @@
         <v>203004</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D53" s="2"/>
       <c r="E53" s="2">
         <v>15004002</v>
       </c>
@@ -2646,11 +2546,9 @@
         <v>203005</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D54" s="2"/>
       <c r="E54" s="2">
         <v>15004002</v>
       </c>
@@ -2675,11 +2573,9 @@
         <v>204000</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D56" s="2"/>
       <c r="E56" s="2">
         <v>15004001</v>
       </c>
@@ -2704,11 +2600,9 @@
         <v>204001</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D57" s="2"/>
       <c r="E57" s="2">
         <v>15004001</v>
       </c>
@@ -2733,11 +2627,9 @@
         <v>204002</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D58" s="2"/>
       <c r="E58" s="2">
         <v>15004001</v>
       </c>
@@ -2762,11 +2654,9 @@
         <v>204003</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D59" s="2"/>
       <c r="E59" s="2">
         <v>15004001</v>
       </c>
@@ -2791,11 +2681,9 @@
         <v>204004</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="2">
         <v>15004001</v>
       </c>
@@ -2820,11 +2708,9 @@
         <v>204005</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D61" s="2"/>
       <c r="E61" s="2">
         <v>15004001</v>
       </c>
@@ -2849,10 +2735,7 @@
         <v>500001</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
-      </c>
-      <c r="D70" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E70" s="2">
         <v>15002001</v>
@@ -2875,10 +2758,7 @@
         <v>500101</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
-      </c>
-      <c r="D71" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E71" s="2">
         <v>15002001</v>

--- a/data_config/BattleItem.xlsx
+++ b/data_config/BattleItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17490" windowHeight="10890"/>
+    <workbookView windowWidth="16200" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1372,9 +1372,9 @@
   <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E6" sqref="E6"/>
+      <selection pane="topRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/BattleItem.xlsx
+++ b/data_config/BattleItem.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="10890"/>
+    <workbookView windowWidth="19400" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -115,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="93">
   <si>
     <t>#</t>
   </si>
@@ -228,40 +215,61 @@
     <t>道具7</t>
   </si>
   <si>
+    <t>道具 增加 暴击</t>
+  </si>
+  <si>
+    <t>道具8</t>
+  </si>
+  <si>
+    <t>道具 增加 爆伤</t>
+  </si>
+  <si>
+    <t>道具9</t>
+  </si>
+  <si>
+    <t>道具 增加 技能冷却</t>
+  </si>
+  <si>
+    <t>道具10</t>
+  </si>
+  <si>
+    <t>道具 增加 治疗比率</t>
+  </si>
+  <si>
+    <t>道具11</t>
+  </si>
+  <si>
+    <t>道具 增加 生命回复</t>
+  </si>
+  <si>
+    <t>道具12</t>
+  </si>
+  <si>
+    <t>道具 增加 增伤</t>
+  </si>
+  <si>
+    <t>道具13</t>
+  </si>
+  <si>
+    <t>道具 增加 减伤</t>
+  </si>
+  <si>
     <t>道具 15% 暴击几率</t>
   </si>
   <si>
-    <t>道具8</t>
-  </si>
-  <si>
     <t>道具 50% 暴击伤害</t>
   </si>
   <si>
-    <t>道具9</t>
-  </si>
-  <si>
     <t>道具 20 技能冷却</t>
   </si>
   <si>
-    <t>道具10</t>
-  </si>
-  <si>
     <t>道具 生命恢复速度 150%</t>
   </si>
   <si>
-    <t>道具11</t>
-  </si>
-  <si>
     <t>道具 增加 10% 增伤 和 10% 减伤</t>
   </si>
   <si>
-    <t>道具12</t>
-  </si>
-  <si>
     <t>道具 叠加暴击 增加 增加 250 攻击力和 100%爆伤</t>
-  </si>
-  <si>
-    <t>道具13</t>
   </si>
   <si>
     <t>道具 被攻击时向攻击者发射一个攻击球（护甲加成） 增加 600 生命值 和 300 护甲</t>
@@ -378,7 +386,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -538,12 +546,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1015,11 +1023,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1369,18 +1377,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I7" sqref="I7"/>
+      <selection pane="topRight" activeCell="G25" sqref="G25:G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="33.25" customWidth="1"/>
+    <col min="3" max="3" width="10.8846153846154" customWidth="1"/>
     <col min="4" max="5" width="29.25" customWidth="1"/>
     <col min="6" max="8" width="12.875" customWidth="1"/>
     <col min="9" max="9" width="18.75" customWidth="1"/>
@@ -1507,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>100001</v>
+        <v>1000001</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -1515,7 +1523,7 @@
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>15004001</v>
       </c>
       <c r="F6">
@@ -1530,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>100002</v>
+        <v>1000002</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -1538,7 +1546,7 @@
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>15004002</v>
       </c>
       <c r="F7">
@@ -1553,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>100003</v>
+        <v>1000003</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
@@ -1561,7 +1569,7 @@
       <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>15004003</v>
       </c>
       <c r="F8">
@@ -1576,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>100004</v>
+        <v>1000004</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
@@ -1584,7 +1592,7 @@
       <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>15004001</v>
       </c>
       <c r="F9">
@@ -1599,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>100005</v>
+        <v>1000005</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -1607,7 +1615,7 @@
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>15004002</v>
       </c>
       <c r="F10">
@@ -1622,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1">
-        <v>100006</v>
+        <v>1000006</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>34</v>
@@ -1630,7 +1638,7 @@
       <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>15004003</v>
       </c>
       <c r="F11">
@@ -1640,50 +1648,36 @@
         <v>3000006</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:11">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>100007</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5">
-        <v>15004001</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>3000007</v>
-      </c>
+    <row r="12" customFormat="1" spans="2:5">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" customFormat="1" spans="1:11">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="1">
-        <v>100008</v>
+        <v>1100001</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="5">
-        <v>15004002</v>
+        <v>25</v>
+      </c>
+      <c r="E13" s="6">
+        <v>15004001</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
       <c r="K13">
-        <v>3000008</v>
+        <v>3100001</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:11">
@@ -1691,22 +1685,25 @@
         <v>0</v>
       </c>
       <c r="B14" s="1">
-        <v>100009</v>
+        <v>1100002</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="5">
-        <v>15004003</v>
+        <v>27</v>
+      </c>
+      <c r="E14" s="6">
+        <v>15004001</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
       <c r="K14">
-        <v>3000009</v>
+        <v>3100002</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:11">
@@ -1714,22 +1711,25 @@
         <v>0</v>
       </c>
       <c r="B15" s="1">
-        <v>100010</v>
+        <v>1100003</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="5">
+        <v>29</v>
+      </c>
+      <c r="E15" s="6">
         <v>15004001</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
       <c r="K15">
-        <v>3000010</v>
+        <v>3100003</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:11">
@@ -1737,22 +1737,25 @@
         <v>0</v>
       </c>
       <c r="B16" s="1">
-        <v>100011</v>
+        <v>1100004</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="5">
-        <v>15004002</v>
+        <v>31</v>
+      </c>
+      <c r="E16" s="6">
+        <v>15004001</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
       <c r="K16">
-        <v>3000011</v>
+        <v>3100004</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:11">
@@ -1760,25 +1763,25 @@
         <v>0</v>
       </c>
       <c r="B17" s="1">
-        <v>100012</v>
+        <v>1100005</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="5">
-        <v>15004003</v>
+        <v>33</v>
+      </c>
+      <c r="E17" s="6">
+        <v>15004001</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>2820101</v>
+      <c r="G17">
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>3000012</v>
+        <v>3100005</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:11">
@@ -1786,25 +1789,25 @@
         <v>0</v>
       </c>
       <c r="B18" s="1">
-        <v>100013</v>
+        <v>1100006</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="5">
+        <v>35</v>
+      </c>
+      <c r="E18" s="6">
         <v>15004001</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>2820201</v>
+      <c r="G18">
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>3000014</v>
+        <v>3100006</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:11">
@@ -1812,876 +1815,806 @@
         <v>0</v>
       </c>
       <c r="B19" s="1">
+        <v>1100007</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>3100007</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:11">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1100008</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>3100008</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:11">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1100009</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>3100009</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:11">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1100010</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>3100010</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:11">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1100011</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>3100011</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="2:5">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:11">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1200001</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>3200001</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:11">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1200002</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>3200002</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:11">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1200003</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>3200003</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:11">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1200004</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>3200004</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:11">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1200005</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>3200005</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:11">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1200006</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>3200006</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:11">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1200007</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>3200007</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:11">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1200008</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>3200008</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:11">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1200009</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>3200009</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:11">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1200010</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>3200010</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:11">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1200011</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>3200011</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:11">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1200012</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>3200012</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:11">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1200013</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>3200013</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="2:5">
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" customFormat="1" spans="2:5">
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" customFormat="1" spans="2:5">
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" customFormat="1" spans="2:5">
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" customFormat="1" spans="2:11">
+      <c r="B42" s="1">
+        <v>100007</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>3000007</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="2:11">
+      <c r="B43" s="1">
+        <v>100008</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="6">
+        <v>15004002</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>3000008</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="2:11">
+      <c r="B44" s="1">
+        <v>100009</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="6">
+        <v>15004003</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>3000009</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="2:11">
+      <c r="B45" s="1">
+        <v>100010</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>3000010</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="2:11">
+      <c r="B46" s="1">
+        <v>100011</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="6">
+        <v>15004002</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>3000011</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="2:11">
+      <c r="B47" s="1">
+        <v>100012</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="6">
+        <v>15004003</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>2820101</v>
+      </c>
+      <c r="K47">
+        <v>3000012</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="2:11">
+      <c r="B48" s="1">
+        <v>100013</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>2820201</v>
+      </c>
+      <c r="K48">
+        <v>3000014</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="2:11">
+      <c r="B49" s="1">
         <v>100014</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="5">
-        <v>15004001</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="J19">
+      <c r="C49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="J49">
         <v>2820301</v>
       </c>
-      <c r="K19">
+      <c r="K49">
         <v>3000015</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" customFormat="1" spans="1:5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22">
+    <row r="50" customFormat="1" spans="1:5">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" customFormat="1" spans="1:5">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52">
         <v>100001</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="2">
-        <v>15004001</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
+      <c r="C52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
         <v>2005001</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:11">
-      <c r="A24"/>
-      <c r="B24" s="1">
+    <row r="53" spans="3:5">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:11">
+      <c r="A54"/>
+      <c r="B54" s="1">
         <v>100101</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="5">
-        <v>15004001</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1">
+      <c r="C54" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="6">
+        <v>15004001</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1">
         <v>100603</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:11">
-      <c r="A25"/>
-      <c r="B25" s="1">
+    <row r="55" s="1" customFormat="1" spans="1:11">
+      <c r="A55"/>
+      <c r="B55" s="1">
         <v>100102</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="C55" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="6">
         <v>15004002</v>
       </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1">
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1">
         <v>100604</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:11">
-      <c r="A26"/>
-      <c r="B26" s="1">
+    <row r="56" s="1" customFormat="1" spans="1:11">
+      <c r="A56"/>
+      <c r="B56" s="1">
         <v>100103</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="C56" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="6">
         <v>15004003</v>
       </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1">
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="K56" s="1">
         <v>100603</v>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="1:5">
-      <c r="A27" s="1"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" customFormat="1" spans="1:5">
-      <c r="A28" s="1"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" customFormat="1" spans="1:5">
-      <c r="A29" s="1"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" customFormat="1" spans="1:10">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
+    <row r="57" customFormat="1" spans="1:5">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" customFormat="1" spans="1:5">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" customFormat="1" spans="1:5">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" customFormat="1" spans="1:10">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
         <v>200001</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2">
-        <v>15004001</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>2001023</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:10">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>200002</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2">
-        <v>15004002</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>2001024</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="3:5">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" customFormat="1" spans="1:9">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>201000</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2">
-        <v>15004001</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:9">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <v>201001</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2">
-        <v>15004001</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:9">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35">
-        <v>201002</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2">
-        <v>15004001</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36">
-        <v>201003</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2">
-        <v>15004001</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <v>201004</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2">
-        <v>15004001</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38">
-        <v>201005</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2">
-        <v>15004001</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39">
-        <v>201006</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2">
-        <v>15004001</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="4:5">
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" customFormat="1" spans="1:9">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <v>202000</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2">
-        <v>15004002</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>202001</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2">
-        <v>15004002</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43">
-        <v>202002</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2">
-        <v>15004002</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44">
-        <v>202003</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2">
-        <v>15004002</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45">
-        <v>202004</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2">
-        <v>15004002</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46">
-        <v>202005</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2">
-        <v>15004002</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47">
-        <v>202006</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2">
-        <v>15004002</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49">
-        <v>203000</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2">
-        <v>15004002</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50">
-        <v>203001</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2">
-        <v>15004002</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51">
-        <v>203002</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2">
-        <v>15004002</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52">
-        <v>203003</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2">
-        <v>15004002</v>
-      </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53">
-        <v>203004</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2">
-        <v>15004002</v>
-      </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54">
-        <v>203005</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2">
-        <v>15004002</v>
-      </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56">
-        <v>204000</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2">
-        <v>15004001</v>
-      </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-      <c r="G56">
-        <v>3</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57">
-        <v>204001</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2">
-        <v>15004001</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-      <c r="G57">
-        <v>3</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58">
-        <v>204002</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2">
-        <v>15004001</v>
-      </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-      <c r="G58">
-        <v>3</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59">
-        <v>204003</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2">
-        <v>15004001</v>
-      </c>
-      <c r="F59">
-        <v>2</v>
-      </c>
-      <c r="G59">
-        <v>3</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60">
-        <v>204004</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2">
@@ -2690,86 +2623,797 @@
       <c r="F60">
         <v>2</v>
       </c>
-      <c r="G60">
-        <v>3</v>
-      </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60">
+        <v>2001023</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:10">
       <c r="A61" t="s">
         <v>0</v>
       </c>
       <c r="B61">
-        <v>204005</v>
+        <v>200002</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2">
-        <v>15004001</v>
+        <v>15004002</v>
       </c>
       <c r="F61">
         <v>2</v>
       </c>
-      <c r="G61">
-        <v>3</v>
-      </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70">
-        <v>500001</v>
-      </c>
-      <c r="C70" t="s">
-        <v>84</v>
-      </c>
-      <c r="E70" s="2">
-        <v>15002001</v>
-      </c>
-      <c r="F70">
-        <v>5</v>
-      </c>
-      <c r="H70">
-        <v>2</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
+      <c r="J61">
+        <v>2001024</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="3:5">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" customFormat="1" spans="1:9">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>201000</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:9">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>201001</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:9">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>201002</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>201003</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>201004</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>201005</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>201006</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="4:5">
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
     </row>
     <row r="71" customFormat="1" spans="1:9">
       <c r="A71" t="s">
         <v>0</v>
       </c>
       <c r="B71">
+        <v>202000</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>202001</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>202002</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>202003</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>202004</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>202005</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>202006</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>203000</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>203001</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>203002</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>203003</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>203004</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>203005</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>204000</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>204001</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>204002</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>204003</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>204004</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>204005</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>500001</v>
+      </c>
+      <c r="C100" t="s">
+        <v>91</v>
+      </c>
+      <c r="E100" s="2">
+        <v>15002001</v>
+      </c>
+      <c r="F100">
+        <v>5</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="1" spans="1:9">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101">
         <v>500101</v>
       </c>
-      <c r="C71" t="s">
-        <v>85</v>
-      </c>
-      <c r="E71" s="2">
+      <c r="C101" t="s">
+        <v>92</v>
+      </c>
+      <c r="E101" s="2">
         <v>15002001</v>
       </c>
-      <c r="F71">
+      <c r="F101">
         <v>5</v>
       </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
-      <c r="I71">
+      <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
         <v>0</v>
       </c>
     </row>
@@ -2790,7 +3434,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2807,7 +3451,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/BattleItem.xlsx
+++ b/data_config/BattleItem.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19400" windowHeight="10480"/>
+    <workbookView windowWidth="16635" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -386,7 +399,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1023,11 +1036,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1379,16 +1392,16 @@
   <sheetPr/>
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G25" sqref="G25:G37"/>
+      <selection pane="topRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="10.8846153846154" customWidth="1"/>
+    <col min="3" max="3" width="10.8833333333333" customWidth="1"/>
     <col min="4" max="5" width="29.25" customWidth="1"/>
     <col min="6" max="8" width="12.875" customWidth="1"/>
     <col min="9" max="9" width="18.75" customWidth="1"/>
@@ -1523,7 +1536,7 @@
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>15004001</v>
       </c>
       <c r="F6">
@@ -1546,7 +1559,7 @@
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>15004002</v>
       </c>
       <c r="F7">
@@ -1569,7 +1582,7 @@
       <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>15004003</v>
       </c>
       <c r="F8">
@@ -1592,7 +1605,7 @@
       <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>15004001</v>
       </c>
       <c r="F9">
@@ -1615,7 +1628,7 @@
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>15004002</v>
       </c>
       <c r="F10">
@@ -1638,7 +1651,7 @@
       <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>15004003</v>
       </c>
       <c r="F11">
@@ -1652,7 +1665,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" customFormat="1" spans="1:11">
       <c r="A13" t="s">
@@ -1667,7 +1680,7 @@
       <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>15004001</v>
       </c>
       <c r="F13">
@@ -1693,7 +1706,7 @@
       <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>15004001</v>
       </c>
       <c r="F14">
@@ -1719,7 +1732,7 @@
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>15004001</v>
       </c>
       <c r="F15">
@@ -1745,7 +1758,7 @@
       <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>15004001</v>
       </c>
       <c r="F16">
@@ -1771,7 +1784,7 @@
       <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>15004001</v>
       </c>
       <c r="F17">
@@ -1797,7 +1810,7 @@
       <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>15004001</v>
       </c>
       <c r="F18">
@@ -1823,7 +1836,7 @@
       <c r="D19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>15004001</v>
       </c>
       <c r="F19">
@@ -1849,7 +1862,7 @@
       <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>15004001</v>
       </c>
       <c r="F20">
@@ -1875,7 +1888,7 @@
       <c r="D21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>15004001</v>
       </c>
       <c r="F21">
@@ -1901,7 +1914,7 @@
       <c r="D22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>15004001</v>
       </c>
       <c r="F22">
@@ -1927,7 +1940,7 @@
       <c r="D23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>15004001</v>
       </c>
       <c r="F23">
@@ -1944,7 +1957,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" customFormat="1" spans="1:11">
       <c r="A25" t="s">
@@ -1959,7 +1972,7 @@
       <c r="D25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>15004001</v>
       </c>
       <c r="F25">
@@ -1985,7 +1998,7 @@
       <c r="D26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>15004001</v>
       </c>
       <c r="F26">
@@ -2011,7 +2024,7 @@
       <c r="D27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>15004001</v>
       </c>
       <c r="F27">
@@ -2037,7 +2050,7 @@
       <c r="D28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>15004001</v>
       </c>
       <c r="F28">
@@ -2063,7 +2076,7 @@
       <c r="D29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>15004001</v>
       </c>
       <c r="F29">
@@ -2089,7 +2102,7 @@
       <c r="D30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>15004001</v>
       </c>
       <c r="F30">
@@ -2115,7 +2128,7 @@
       <c r="D31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>15004001</v>
       </c>
       <c r="F31">
@@ -2141,7 +2154,7 @@
       <c r="D32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>15004001</v>
       </c>
       <c r="F32">
@@ -2167,7 +2180,7 @@
       <c r="D33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>15004001</v>
       </c>
       <c r="F33">
@@ -2193,7 +2206,7 @@
       <c r="D34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>15004001</v>
       </c>
       <c r="F34">
@@ -2219,7 +2232,7 @@
       <c r="D35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>15004001</v>
       </c>
       <c r="F35">
@@ -2245,7 +2258,7 @@
       <c r="D36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>15004001</v>
       </c>
       <c r="F36">
@@ -2271,7 +2284,7 @@
       <c r="D37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>15004001</v>
       </c>
       <c r="F37">
@@ -2288,25 +2301,25 @@
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="6"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" customFormat="1" spans="2:5">
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="6"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" customFormat="1" spans="2:5">
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="6"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" customFormat="1" spans="2:5">
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="6"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" customFormat="1" spans="2:11">
       <c r="B42" s="1">
@@ -2318,7 +2331,7 @@
       <c r="D42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>15004001</v>
       </c>
       <c r="F42">
@@ -2338,7 +2351,7 @@
       <c r="D43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>15004002</v>
       </c>
       <c r="F43">
@@ -2358,7 +2371,7 @@
       <c r="D44" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>15004003</v>
       </c>
       <c r="F44">
@@ -2378,7 +2391,7 @@
       <c r="D45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>15004001</v>
       </c>
       <c r="F45">
@@ -2398,7 +2411,7 @@
       <c r="D46" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>15004002</v>
       </c>
       <c r="F46">
@@ -2418,7 +2431,7 @@
       <c r="D47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>15004003</v>
       </c>
       <c r="F47">
@@ -2441,7 +2454,7 @@
       <c r="D48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>15004001</v>
       </c>
       <c r="F48">
@@ -2464,7 +2477,7 @@
       <c r="D49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>15004001</v>
       </c>
       <c r="F49">
@@ -2479,14 +2492,14 @@
     </row>
     <row r="50" customFormat="1" spans="1:5">
       <c r="A50" s="1"/>
-      <c r="B50" s="5"/>
+      <c r="B50" s="6"/>
       <c r="C50" s="1"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" customFormat="1" spans="1:5">
       <c r="A51" s="1"/>
-      <c r="B51" s="5"/>
+      <c r="B51" s="6"/>
       <c r="C51" s="1"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2527,13 +2540,13 @@
       <c r="B54" s="1">
         <v>100101</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>15004001</v>
       </c>
       <c r="F54" s="1">
@@ -2548,13 +2561,13 @@
       <c r="B55" s="1">
         <v>100102</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>15004002</v>
       </c>
       <c r="F55" s="1">
@@ -2569,13 +2582,13 @@
       <c r="B56" s="1">
         <v>100103</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>15004003</v>
       </c>
       <c r="F56" s="1">
@@ -2587,21 +2600,21 @@
     </row>
     <row r="57" customFormat="1" spans="1:5">
       <c r="A57" s="1"/>
-      <c r="B57" s="5"/>
+      <c r="B57" s="6"/>
       <c r="C57" s="1"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" customFormat="1" spans="1:5">
       <c r="A58" s="1"/>
-      <c r="B58" s="5"/>
+      <c r="B58" s="6"/>
       <c r="C58" s="1"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" customFormat="1" spans="1:5">
       <c r="A59" s="1"/>
-      <c r="B59" s="5"/>
+      <c r="B59" s="6"/>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -3434,7 +3447,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3451,7 +3464,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/BattleItem.xlsx
+++ b/data_config/BattleItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16635" windowHeight="11700"/>
+    <workbookView windowWidth="8100" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="106">
   <si>
     <t>#</t>
   </si>
@@ -192,13 +192,13 @@
     <t>道具1</t>
   </si>
   <si>
-    <t>道具 增加 攻击力 100</t>
+    <t>道具 增加 攻击力 75</t>
   </si>
   <si>
     <t>道具2</t>
   </si>
   <si>
-    <t>道具 增加 护甲 100</t>
+    <t>道具 增加 护甲 25</t>
   </si>
   <si>
     <t>道具3</t>
@@ -210,49 +210,100 @@
     <t>道具4</t>
   </si>
   <si>
-    <t>道具 增加 攻速 40%</t>
+    <t>道具 增加 攻速 30%</t>
   </si>
   <si>
     <t>道具5</t>
   </si>
   <si>
+    <t>道具 增加 移速 1.0</t>
+  </si>
+  <si>
+    <t>道具6</t>
+  </si>
+  <si>
+    <t>道具 增加 攻击距离 1.0</t>
+  </si>
+  <si>
+    <t>道具 增加 攻击力 160</t>
+  </si>
+  <si>
+    <t>道具 增加 护甲 45</t>
+  </si>
+  <si>
+    <t>道具 增加 生命值 900</t>
+  </si>
+  <si>
+    <t>道具 增加 攻速 50%</t>
+  </si>
+  <si>
     <t>道具 增加 移速 1.5</t>
   </si>
   <si>
-    <t>道具6</t>
-  </si>
-  <si>
-    <t>道具 增加 攻击距离 400</t>
+    <t>道具 增加 攻击距离 1.5</t>
   </si>
   <si>
     <t>道具7</t>
   </si>
   <si>
-    <t>道具 增加 暴击</t>
+    <t>道具 15% 暴击几率</t>
   </si>
   <si>
     <t>道具8</t>
   </si>
   <si>
-    <t>道具 增加 爆伤</t>
+    <t>道具 50% 暴击伤害</t>
   </si>
   <si>
     <t>道具9</t>
   </si>
   <si>
-    <t>道具 增加 技能冷却</t>
+    <t>道具 20 技能冷却</t>
   </si>
   <si>
     <t>道具10</t>
   </si>
   <si>
-    <t>道具 增加 治疗比率</t>
+    <t>道具 治疗效果增加 35%</t>
   </si>
   <si>
     <t>道具11</t>
   </si>
   <si>
-    <t>道具 增加 生命回复</t>
+    <t>道具 生命恢复速度 150%</t>
+  </si>
+  <si>
+    <t>道具 增加 攻击力 350</t>
+  </si>
+  <si>
+    <t>道具 增加 护甲 80</t>
+  </si>
+  <si>
+    <t>道具 增加 生命值 1800</t>
+  </si>
+  <si>
+    <t>道具 增加 攻速 80%</t>
+  </si>
+  <si>
+    <t>道具 增加 移速 2.0</t>
+  </si>
+  <si>
+    <t>道具 增加 攻击距离 2.0</t>
+  </si>
+  <si>
+    <t>道具 30% 暴击几率</t>
+  </si>
+  <si>
+    <t>道具 100% 暴击伤害</t>
+  </si>
+  <si>
+    <t>道具 40 技能冷却</t>
+  </si>
+  <si>
+    <t>道具 治疗效果增加 80%</t>
+  </si>
+  <si>
+    <t>道具 生命恢复速度 300%</t>
   </si>
   <si>
     <t>道具12</t>
@@ -265,18 +316,6 @@
   </si>
   <si>
     <t>道具 增加 减伤</t>
-  </si>
-  <si>
-    <t>道具 15% 暴击几率</t>
-  </si>
-  <si>
-    <t>道具 50% 暴击伤害</t>
-  </si>
-  <si>
-    <t>道具 20 技能冷却</t>
-  </si>
-  <si>
-    <t>道具 生命恢复速度 150%</t>
   </si>
   <si>
     <t>道具 增加 10% 增伤 和 10% 减伤</t>
@@ -559,12 +598,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1395,7 +1434,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B25" sqref="B25"/>
+      <selection pane="topRight" activeCell="D25" sqref="D25:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1678,7 +1717,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5">
         <v>15004001</v>
@@ -1704,7 +1743,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E14" s="5">
         <v>15004001</v>
@@ -1730,7 +1769,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5">
         <v>15004001</v>
@@ -1756,7 +1795,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E16" s="5">
         <v>15004001</v>
@@ -1782,7 +1821,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E17" s="5">
         <v>15004001</v>
@@ -1808,7 +1847,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E18" s="5">
         <v>15004001</v>
@@ -1831,10 +1870,10 @@
         <v>1100007</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E19" s="5">
         <v>15004001</v>
@@ -1857,10 +1896,10 @@
         <v>1100008</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E20" s="5">
         <v>15004001</v>
@@ -1883,10 +1922,10 @@
         <v>1100009</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E21" s="5">
         <v>15004001</v>
@@ -1909,10 +1948,10 @@
         <v>1100010</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E22" s="5">
         <v>15004001</v>
@@ -1935,10 +1974,10 @@
         <v>1100011</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E23" s="5">
         <v>15004001</v>
@@ -1970,7 +2009,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E25" s="5">
         <v>15004001</v>
@@ -1996,7 +2035,7 @@
         <v>26</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E26" s="5">
         <v>15004001</v>
@@ -2022,7 +2061,7 @@
         <v>28</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E27" s="5">
         <v>15004001</v>
@@ -2048,7 +2087,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E28" s="5">
         <v>15004001</v>
@@ -2074,7 +2113,7 @@
         <v>32</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E29" s="5">
         <v>15004001</v>
@@ -2100,7 +2139,7 @@
         <v>34</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E30" s="5">
         <v>15004001</v>
@@ -2123,10 +2162,10 @@
         <v>1200007</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E31" s="5">
         <v>15004001</v>
@@ -2149,10 +2188,10 @@
         <v>1200008</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E32" s="5">
         <v>15004001</v>
@@ -2175,10 +2214,10 @@
         <v>1200009</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E33" s="5">
         <v>15004001</v>
@@ -2201,10 +2240,10 @@
         <v>1200010</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E34" s="5">
         <v>15004001</v>
@@ -2227,10 +2266,10 @@
         <v>1200011</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E35" s="5">
         <v>15004001</v>
@@ -2253,10 +2292,10 @@
         <v>1200012</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E36" s="5">
         <v>15004001</v>
@@ -2279,10 +2318,10 @@
         <v>1200013</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E37" s="5">
         <v>15004001</v>
@@ -2326,10 +2365,10 @@
         <v>100007</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E42" s="5">
         <v>15004001</v>
@@ -2346,10 +2385,10 @@
         <v>100008</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E43" s="5">
         <v>15004002</v>
@@ -2366,10 +2405,10 @@
         <v>100009</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E44" s="5">
         <v>15004003</v>
@@ -2386,10 +2425,10 @@
         <v>100010</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E45" s="5">
         <v>15004001</v>
@@ -2406,10 +2445,10 @@
         <v>100011</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E46" s="5">
         <v>15004002</v>
@@ -2426,10 +2465,10 @@
         <v>100012</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E47" s="5">
         <v>15004003</v>
@@ -2449,10 +2488,10 @@
         <v>100013</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E48" s="5">
         <v>15004001</v>
@@ -2472,10 +2511,10 @@
         <v>100014</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E49" s="5">
         <v>15004001</v>
@@ -2509,10 +2548,10 @@
         <v>100001</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E52" s="2">
         <v>15004001</v>
@@ -2541,10 +2580,10 @@
         <v>100101</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E54" s="5">
         <v>15004001</v>
@@ -2562,10 +2601,10 @@
         <v>100102</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E55" s="5">
         <v>15004002</v>
@@ -2583,10 +2622,10 @@
         <v>100103</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E56" s="5">
         <v>15004003</v>
@@ -2627,7 +2666,7 @@
         <v>200001</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2">
@@ -2654,7 +2693,7 @@
         <v>200002</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2">
@@ -2686,7 +2725,7 @@
         <v>201000</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2">
@@ -2713,7 +2752,7 @@
         <v>201001</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2">
@@ -2740,7 +2779,7 @@
         <v>201002</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2">
@@ -2767,7 +2806,7 @@
         <v>201003</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2">
@@ -2794,7 +2833,7 @@
         <v>201004</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2">
@@ -2821,7 +2860,7 @@
         <v>201005</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2">
@@ -2848,7 +2887,7 @@
         <v>201006</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2">
@@ -2879,7 +2918,7 @@
         <v>202000</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2">
@@ -2906,7 +2945,7 @@
         <v>202001</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2">
@@ -2933,7 +2972,7 @@
         <v>202002</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2">
@@ -2960,7 +2999,7 @@
         <v>202003</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2">
@@ -2987,7 +3026,7 @@
         <v>202004</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2">
@@ -3014,7 +3053,7 @@
         <v>202005</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2">
@@ -3041,7 +3080,7 @@
         <v>202006</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2">
@@ -3068,7 +3107,7 @@
         <v>203000</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2">
@@ -3095,7 +3134,7 @@
         <v>203001</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2">
@@ -3122,7 +3161,7 @@
         <v>203002</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2">
@@ -3149,7 +3188,7 @@
         <v>203003</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2">
@@ -3176,7 +3215,7 @@
         <v>203004</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2">
@@ -3203,7 +3242,7 @@
         <v>203005</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2">
@@ -3230,7 +3269,7 @@
         <v>204000</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2">
@@ -3257,7 +3296,7 @@
         <v>204001</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2">
@@ -3284,7 +3323,7 @@
         <v>204002</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2">
@@ -3311,7 +3350,7 @@
         <v>204003</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2">
@@ -3338,7 +3377,7 @@
         <v>204004</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2">
@@ -3365,7 +3404,7 @@
         <v>204005</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2">
@@ -3392,7 +3431,7 @@
         <v>500001</v>
       </c>
       <c r="C100" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2">
         <v>15002001</v>
@@ -3415,7 +3454,7 @@
         <v>500101</v>
       </c>
       <c r="C101" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2">
         <v>15002001</v>
